--- a/srv/common/db/stock.xlsx
+++ b/srv/common/db/stock.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilian.ribeiro\Desktop\Projeto Santander\File xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/I558720/Documents/workspace_sap_vscode/capobjectstore/srv/common/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8462699-D43E-48AC-88CD-C1D393472E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC53595-B14D-8E45-A92D-A73854831B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C98AE611-F642-4CA9-B067-B7D9B61D4262}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" xr2:uid="{C98AE611-F642-4CA9-B067-B7D9B61D4262}"/>
   </bookViews>
   <sheets>
     <sheet name="PLANILHA BASE" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,9 @@
   </externalReferences>
   <definedNames>
     <definedName name="apsul">[1]Original!$A$1:$V$9</definedName>
-    <definedName name="_xlnm.Print_Area">'[2]Apresentação 2008'!$A:$IV</definedName>
     <definedName name="AUXILIAR">#REF!</definedName>
     <definedName name="_xlnm.Database">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area">'[2]Apresentação 2008'!$A:$IV</definedName>
     <definedName name="Z_17902E75_F0AE_4D30_9B6D_C03BA89DB942_.wvu.Rows" hidden="1">[2]Resumo!$A$6:$IV$100,[2]Resumo!$A$147:$IV$241,[2]Resumo!$A$264:$IV$358</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,48 +44,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>SP</t>
+    <t>Código Material</t>
   </si>
   <si>
-    <t>SÃO PAULO</t>
+    <t>100000001</t>
   </si>
   <si>
-    <t>Santander - MATRIZ</t>
+    <t>Centro</t>
   </si>
   <si>
-    <t>CNPJ</t>
+    <t>Estoque</t>
   </si>
   <si>
-    <t>CCM</t>
+    <t>5398</t>
   </si>
   <si>
-    <t>SANTANDER_MATRIZ_CER</t>
+    <t>Unidade</t>
   </si>
   <si>
-    <t>Santander Brasil SA - MATRIZ - SÃO PAULO/SP</t>
-  </si>
-  <si>
-    <t>90400888000142</t>
-  </si>
-  <si>
-    <t>35357266</t>
-  </si>
-  <si>
-    <t>Razão Social</t>
-  </si>
-  <si>
-    <t>Certificado</t>
-  </si>
-  <si>
-    <t>Descrição</t>
-  </si>
-  <si>
-    <t>Nome da cidade</t>
-  </si>
-  <si>
-    <t>Estado</t>
+    <t>KG</t>
   </si>
 </sst>
 </file>
@@ -130,18 +109,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -149,9 +119,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10689,7 +10656,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -10985,68 +10952,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0FFAB1-2634-42A0-8155-031FEC4C29B6}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="79.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" style="3" customWidth="1"/>
-    <col min="8" max="8" width="6" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
       </c>
-      <c r="C1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
         <v>6</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
